--- a/excel/data_excel/MonAi.xlsx
+++ b/excel/data_excel/MonAi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563A160-51DF-48E5-A271-53678058DF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MonAi" localSheetId="0">Sheet1!$A$1:$J$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$L$3</definedName>
+    <definedName name="MonAi" localSheetId="0">Sheet1!$C$1:$L$151</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MonAi" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MonAi" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\MonAi.txt">
       <textFields count="10">
         <textField/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="370">
   <si>
     <t>AI</t>
   </si>
@@ -1129,12 +1131,40 @@
   </si>
   <si>
     <t>UberDiablo</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_MonAi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1183,12 +1213,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MonAi" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MonAi" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1234,7 +1267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1267,9 +1300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1302,6 +1352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1477,2598 +1544,3571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F19" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I20" t="s">
         <v>34</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H22" t="s">
         <v>62</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E24" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H24" t="s">
         <v>66</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F26" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G26" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H26" t="s">
         <v>73</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F27" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H27" t="s">
         <v>76</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H28" t="s">
         <v>81</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E29" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E30" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F30" t="s">
         <v>86</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G30" t="s">
         <v>87</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H33" t="s">
         <v>100</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F34" t="s">
         <v>102</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G34" t="s">
         <v>103</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F37" t="s">
         <v>107</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F38" t="s">
         <v>111</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G38" t="s">
         <v>112</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
         <v>124</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H42" t="s">
         <v>21</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E43" t="s">
         <v>126</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F43" t="s">
         <v>13</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G43" t="s">
         <v>124</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H43" t="s">
         <v>127</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
         <v>129</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E44" t="s">
         <v>130</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
         <v>134</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F47" t="s">
         <v>135</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
         <v>136</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
         <v>137</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E48" t="s">
         <v>127</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F48" t="s">
         <v>65</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G48" t="s">
         <v>138</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H48" t="s">
         <v>25</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
         <v>134</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F49" t="s">
         <v>135</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E50" t="s">
         <v>141</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F50" t="s">
         <v>142</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E51" t="s">
         <v>15</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G51" t="s">
         <v>21</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
         <v>144</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E52" t="s">
         <v>138</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F52" t="s">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G52" t="s">
         <v>37</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E53" t="s">
         <v>146</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F53" t="s">
         <v>147</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G53" t="s">
         <v>83</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H53" t="s">
         <v>148</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I53" t="s">
         <v>149</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
         <v>151</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
         <v>152</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
         <v>153</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E56" t="s">
         <v>154</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F56" t="s">
         <v>155</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G56" t="s">
         <v>156</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H56" t="s">
         <v>43</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I56" t="s">
         <v>46</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J56" t="s">
         <v>14</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K56" t="s">
         <v>157</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
         <v>158</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
         <v>83</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E57" t="s">
         <v>159</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F57" t="s">
         <v>160</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G57" t="s">
         <v>161</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H57" t="s">
         <v>162</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I57" t="s">
         <v>163</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J57" t="s">
         <v>164</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K57" t="s">
         <v>165</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
         <v>166</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
         <v>167</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E59" t="s">
         <v>86</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F59" t="s">
         <v>168</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G59" t="s">
         <v>169</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H59" t="s">
         <v>170</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I59" t="s">
         <v>171</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
         <v>172</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E60" t="s">
         <v>173</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F60" t="s">
         <v>174</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G60" t="s">
         <v>175</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I60" t="s">
         <v>94</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
         <v>43</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E61" t="s">
         <v>173</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F61" t="s">
         <v>174</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G61" t="s">
         <v>175</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I61" t="s">
         <v>94</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
         <v>177</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>179</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
         <v>180</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
         <v>181</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
         <v>182</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
         <v>46</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E67" t="s">
         <v>43</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F67" t="s">
         <v>183</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G67" t="s">
         <v>14</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
         <v>184</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" t="s">
         <v>43</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E68" t="s">
         <v>185</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F68" t="s">
         <v>13</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G68" t="s">
         <v>186</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H68" t="s">
         <v>163</v>
       </c>
-      <c r="G66" t="s">
+      <c r="I68" t="s">
         <v>187</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J68" t="s">
         <v>21</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K68" t="s">
         <v>14</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
         <v>188</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" t="s">
         <v>72</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E69" t="s">
         <v>189</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F69" t="s">
         <v>149</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G69" t="s">
         <v>21</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H69" t="s">
         <v>190</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
         <v>191</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
         <v>192</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E70" t="s">
         <v>193</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
         <v>194</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="C71" t="s">
+        <v>194</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
         <v>195</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" t="s">
         <v>192</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E72" t="s">
         <v>196</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F72" t="s">
         <v>197</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G72" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H72" t="s">
         <v>13</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I72" t="s">
         <v>21</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J72" t="s">
         <v>14</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
         <v>198</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E73" t="s">
         <v>199</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F73" t="s">
         <v>13</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
         <v>200</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" t="s">
         <v>201</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E74" t="s">
         <v>83</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F74" t="s">
         <v>202</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G74" t="s">
         <v>20</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H74" t="s">
         <v>203</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I74" t="s">
         <v>204</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J74" t="s">
         <v>205</v>
       </c>
-      <c r="I72" t="s">
+      <c r="K74" t="s">
         <v>199</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
         <v>206</v>
       </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" t="s">
-        <v>210</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s">
-        <v>212</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" t="s">
-        <v>214</v>
-      </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>208</v>
+      </c>
+      <c r="H75" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" t="s">
+        <v>210</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
         <v>199</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>212</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>199</v>
+      </c>
+      <c r="H77" t="s">
         <v>216</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I77" t="s">
         <v>183</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J77" t="s">
         <v>13</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K77" t="s">
         <v>94</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
         <v>217</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
         <v>218</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E78" t="s">
         <v>219</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F78" t="s">
         <v>220</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G78" t="s">
         <v>221</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H78" t="s">
         <v>43</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I78" t="s">
         <v>222</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J78" t="s">
         <v>13</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K78" t="s">
         <v>185</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
         <v>223</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" t="s">
         <v>15</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E79" t="s">
         <v>13</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F79" t="s">
         <v>199</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G79" t="s">
         <v>212</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
         <v>224</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
         <v>135</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E80" t="s">
         <v>225</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
         <v>226</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
         <v>227</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E81" t="s">
         <v>228</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F81" t="s">
         <v>193</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
         <v>229</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
         <v>230</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E82" t="s">
         <v>231</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F82" t="s">
         <v>193</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G82" t="s">
         <v>232</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
         <v>233</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C83" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" t="s">
         <v>230</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E83" t="s">
         <v>231</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F83" t="s">
         <v>193</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G83" t="s">
         <v>232</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
         <v>234</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" t="s">
         <v>107</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E84" t="s">
         <v>235</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F84" t="s">
         <v>193</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
         <v>236</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="C85" t="s">
+        <v>236</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
         <v>237</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" t="s">
         <v>135</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E86" t="s">
         <v>141</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F86" t="s">
         <v>193</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
         <v>238</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
         <v>135</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E87" t="s">
         <v>141</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F87" t="s">
         <v>193</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
         <v>239</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+      <c r="C88" t="s">
+        <v>239</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
         <v>240</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" t="s">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E89" t="s">
         <v>241</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F89" t="s">
         <v>242</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G89" t="s">
         <v>243</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H89" t="s">
         <v>244</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I89" t="s">
         <v>245</v>
       </c>
-      <c r="H87" t="s">
+      <c r="J89" t="s">
         <v>246</v>
       </c>
-      <c r="I87" t="s">
+      <c r="K89" t="s">
         <v>107</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
         <v>247</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+      <c r="C90" t="s">
+        <v>247</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
         <v>248</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
         <v>249</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
         <v>250</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C93" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" t="s">
         <v>251</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E93" t="s">
         <v>252</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F93" t="s">
         <v>253</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G93" t="s">
         <v>13</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H93" t="s">
         <v>155</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I93" t="s">
         <v>254</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
         <v>255</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="C94" t="s">
+        <v>255</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
         <v>256</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="C95" t="s">
+        <v>256</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
         <v>257</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C96" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" t="s">
         <v>107</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E96" t="s">
         <v>235</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F96" t="s">
         <v>193</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
         <v>258</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" t="s">
         <v>259</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E97" t="s">
         <v>260</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F97" t="s">
         <v>261</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G97" t="s">
         <v>262</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H97" t="s">
         <v>263</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I97" t="s">
         <v>264</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
         <v>265</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C98" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" t="s">
         <v>266</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E98" t="s">
         <v>267</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F98" t="s">
         <v>268</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G98" t="s">
         <v>107</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H98" t="s">
         <v>269</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
         <v>270</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" t="s">
         <v>13</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E99" t="s">
         <v>271</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F99" t="s">
         <v>272</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G99" t="s">
         <v>163</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H99" t="s">
         <v>14</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I99" t="s">
         <v>273</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
         <v>274</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" t="s">
         <v>275</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E100" t="s">
         <v>276</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
         <v>277</v>
       </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="C101" t="s">
+        <v>277</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
         <v>278</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+      <c r="C102" t="s">
+        <v>278</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
         <v>279</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+      <c r="C103" t="s">
+        <v>279</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
         <v>280</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="C104" t="s">
+        <v>280</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
         <v>281</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+      <c r="C105" t="s">
+        <v>281</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
         <v>282</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+      <c r="C106" t="s">
+        <v>282</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
         <v>283</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+      <c r="C107" t="s">
+        <v>283</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
         <v>284</v>
       </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+      <c r="C108" t="s">
+        <v>284</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
         <v>285</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C109" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" t="s">
         <v>286</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E109" t="s">
         <v>287</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F109" t="s">
         <v>288</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G109" t="s">
         <v>289</v>
       </c>
-      <c r="I107" t="s">
+      <c r="K109" t="s">
         <v>290</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
         <v>291</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C110" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" t="s">
         <v>292</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E110" t="s">
         <v>293</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F110" t="s">
         <v>288</v>
       </c>
-      <c r="I108" t="s">
+      <c r="K110" t="s">
         <v>294</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
         <v>295</v>
       </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+      <c r="C111" t="s">
+        <v>295</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
         <v>296</v>
       </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
+      <c r="C112" t="s">
+        <v>296</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
         <v>297</v>
       </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
+      <c r="C113" t="s">
+        <v>297</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
         <v>298</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+      <c r="C114" t="s">
+        <v>298</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
         <v>299</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="C115" t="s">
+        <v>299</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
         <v>300</v>
       </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+      <c r="C116" t="s">
+        <v>300</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
         <v>301</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C117" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
         <v>302</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C118" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" t="s">
         <v>15</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E118" t="s">
         <v>199</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F118" t="s">
         <v>303</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G118" t="s">
         <v>25</v>
       </c>
-      <c r="F116" t="s">
+      <c r="H118" t="s">
         <v>304</v>
       </c>
-      <c r="G116" t="s">
+      <c r="I118" t="s">
         <v>305</v>
       </c>
-      <c r="H116" t="s">
+      <c r="J118" t="s">
         <v>306</v>
       </c>
-      <c r="I116" t="s">
+      <c r="K118" t="s">
         <v>307</v>
       </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
         <v>308</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
         <v>309</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E119" t="s">
         <v>15</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F119" t="s">
         <v>310</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G119" t="s">
         <v>199</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H119" t="s">
         <v>311</v>
       </c>
-      <c r="G117" t="s">
+      <c r="I119" t="s">
         <v>25</v>
       </c>
-      <c r="H117" t="s">
+      <c r="J119" t="s">
         <v>28</v>
       </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
         <v>312</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C120" t="s">
+        <v>312</v>
+      </c>
+      <c r="D120" t="s">
         <v>15</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E120" t="s">
         <v>199</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F120" t="s">
         <v>13</v>
-      </c>
-      <c r="E118" t="s">
-        <v>306</v>
-      </c>
-      <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>313</v>
-      </c>
-      <c r="B119" t="s">
-        <v>314</v>
-      </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>315</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" t="s">
-        <v>221</v>
-      </c>
-      <c r="E120" t="s">
-        <v>316</v>
-      </c>
-      <c r="F120" t="s">
-        <v>199</v>
       </c>
       <c r="G120" t="s">
         <v>306</v>
       </c>
       <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" t="s">
+        <v>314</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>221</v>
+      </c>
+      <c r="G122" t="s">
+        <v>316</v>
+      </c>
+      <c r="H122" t="s">
+        <v>199</v>
+      </c>
+      <c r="I122" t="s">
+        <v>306</v>
+      </c>
+      <c r="J122" t="s">
         <v>317</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
         <v>318</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C123" t="s">
+        <v>318</v>
+      </c>
+      <c r="D123" t="s">
         <v>15</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E123" t="s">
         <v>13</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F123" t="s">
         <v>163</v>
       </c>
-      <c r="E121" t="s">
+      <c r="G123" t="s">
         <v>319</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H123" t="s">
         <v>43</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I123" t="s">
         <v>129</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J123" t="s">
         <v>320</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K123" t="s">
         <v>321</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
         <v>322</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C124" t="s">
+        <v>322</v>
+      </c>
+      <c r="D124" t="s">
         <v>323</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E124" t="s">
         <v>72</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F124" t="s">
         <v>324</v>
       </c>
-      <c r="E122" t="s">
+      <c r="G124" t="s">
         <v>319</v>
       </c>
-      <c r="F122" t="s">
+      <c r="H124" t="s">
         <v>325</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I124" t="s">
         <v>15</v>
       </c>
-      <c r="H122" t="s">
+      <c r="J124" t="s">
         <v>16</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
         <v>326</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C125" t="s">
+        <v>326</v>
+      </c>
+      <c r="D125" t="s">
         <v>135</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E125" t="s">
         <v>14</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F125" t="s">
         <v>225</v>
       </c>
-      <c r="E123" t="s">
+      <c r="G125" t="s">
         <v>327</v>
       </c>
-      <c r="F123" t="s">
+      <c r="H125" t="s">
         <v>328</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
         <v>329</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C126" t="s">
+        <v>329</v>
+      </c>
+      <c r="D126" t="s">
         <v>330</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
         <v>331</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C127" t="s">
+        <v>331</v>
+      </c>
+      <c r="D127" t="s">
         <v>15</v>
       </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
         <v>332</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" t="s">
         <v>15</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E128" t="s">
         <v>13</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F128" t="s">
         <v>333</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G128" t="s">
         <v>14</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
         <v>334</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C129" t="s">
+        <v>334</v>
+      </c>
+      <c r="D129" t="s">
         <v>15</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E129" t="s">
         <v>13</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F129" t="s">
         <v>335</v>
       </c>
-      <c r="E127" t="s">
+      <c r="G129" t="s">
         <v>14</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
         <v>336</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C130" t="s">
+        <v>336</v>
+      </c>
+      <c r="D130" t="s">
         <v>15</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E130" t="s">
         <v>193</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F130" t="s">
         <v>107</v>
       </c>
-      <c r="E128" t="s">
+      <c r="G130" t="s">
         <v>337</v>
       </c>
-      <c r="F128" t="s">
+      <c r="H130" t="s">
         <v>338</v>
       </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
         <v>339</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
+      <c r="C131" t="s">
+        <v>339</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
         <v>340</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
+      <c r="C132" t="s">
+        <v>340</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
         <v>341</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
+      <c r="C133" t="s">
+        <v>341</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
         <v>342</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C134" t="s">
+        <v>342</v>
+      </c>
+      <c r="D134" t="s">
         <v>15</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E134" t="s">
         <v>13</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F134" t="s">
         <v>343</v>
       </c>
-      <c r="E132" t="s">
+      <c r="G134" t="s">
         <v>43</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
         <v>344</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
+      <c r="C135" t="s">
+        <v>344</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
         <v>345</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
+      <c r="C136" t="s">
+        <v>345</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
         <v>346</v>
       </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
+      <c r="C137" t="s">
+        <v>346</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
         <v>347</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
+      <c r="C138" t="s">
+        <v>347</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
         <v>348</v>
       </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
+      <c r="C139" t="s">
+        <v>348</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
         <v>349</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
+      <c r="C140" t="s">
+        <v>349</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
         <v>350</v>
       </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
+      <c r="C141" t="s">
+        <v>350</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
         <v>351</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
+      <c r="C142" t="s">
+        <v>351</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
         <v>352</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
+      <c r="C143" t="s">
+        <v>352</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
         <v>353</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
+      <c r="C144" t="s">
+        <v>353</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
         <v>354</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
+      <c r="C145" t="s">
+        <v>354</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
         <v>355</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C146" t="s">
+        <v>355</v>
+      </c>
+      <c r="D146" t="s">
         <v>25</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E146" t="s">
         <v>57</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F146" t="s">
         <v>15</v>
       </c>
-      <c r="E144" t="s">
+      <c r="G146" t="s">
         <v>43</v>
       </c>
-      <c r="F144" t="s">
+      <c r="H146" t="s">
         <v>14</v>
       </c>
-      <c r="G144" t="s">
+      <c r="I146" t="s">
         <v>34</v>
       </c>
-      <c r="H144" t="s">
+      <c r="J146" t="s">
         <v>46</v>
       </c>
-      <c r="I144" t="s">
+      <c r="K146" t="s">
         <v>356</v>
       </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
         <v>357</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C147" t="s">
+        <v>357</v>
+      </c>
+      <c r="D147" t="s">
         <v>292</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E147" t="s">
         <v>358</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F147" t="s">
         <v>288</v>
       </c>
-      <c r="I145" t="s">
+      <c r="K147" t="s">
         <v>294</v>
       </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
         <v>359</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C148" t="s">
+        <v>359</v>
+      </c>
+      <c r="D148" t="s">
         <v>15</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E148" t="s">
         <v>86</v>
       </c>
-      <c r="D146" t="s">
+      <c r="F148" t="s">
         <v>168</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G148" t="s">
         <v>169</v>
       </c>
-      <c r="F146" t="s">
+      <c r="H148" t="s">
         <v>170</v>
       </c>
-      <c r="G146" t="s">
+      <c r="I148" t="s">
         <v>171</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
         <v>360</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
+      <c r="C149" t="s">
+        <v>360</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
         <v>361</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
+      <c r="C150" t="s">
+        <v>361</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
         <v>362</v>
       </c>
-      <c r="J149">
+      <c r="C151" t="s">
+        <v>362</v>
+      </c>
+      <c r="L151">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C3:L3" xr:uid="{81C4D19E-A3A5-466F-B9FD-028977E96F43}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4076,12 +5116,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
